--- a/public/ransom_sample.xlsx
+++ b/public/ransom_sample.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
-    <t>股东姓名</t>
+    <t>股东姓名 身份证号码</t>
   </si>
   <si>
     <t>退出倍轻松股份数</t>
@@ -1367,7 +1367,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.6719" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.6719" style="1" customWidth="1"/>
